--- a/URLs.xlsx
+++ b/URLs.xlsx
@@ -24,22 +24,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=184686&amp;Type=bkzyb&amp;SubID=83324</t>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=152107&amp;Type=bkzyb&amp;SubID=78305</t>
   </si>
   <si>
-    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=184694&amp;Type=bkzyb&amp;SubID=83324</t>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=201167&amp;Type=bkzyb&amp;SubID=64381</t>
   </si>
   <si>
-    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=185918&amp;Type=bkzyb&amp;SubID=83336</t>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=219297&amp;Type=bkzyb&amp;SubID=139637</t>
   </si>
   <si>
-    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=48933&amp;Type=bkzyb&amp;SubID=76901</t>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=46560&amp;Type=bkzyb&amp;SubID=76106</t>
   </si>
   <si>
-    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=390952&amp;Type=bkztb</t>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=369566&amp;Type=bkztb&amp;SubID=192</t>
   </si>
   <si>
-    <t>https://www.zgbk.com/c/2021-10-09/72454.shtml</t>
+    <t>https://www.zgbk.com/ecph/words?SiteID=1&amp;ID=284334&amp;Type=bkzyb&amp;SubID=154510</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
